--- a/dataset.xlsx
+++ b/dataset.xlsx
@@ -1,37 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aradh\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aradh\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0986C3A5-1151-4F29-B85C-F5ED6F89C634}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0FF5DFCA-CBFF-41ED-89A8-B6D8A5E8D3E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{014AF707-C1F4-487D-A564-D05EB4AE917E}"/>
   </bookViews>
   <sheets>
     <sheet name="Dataset" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Date</t>
   </si>
@@ -88,78 +77,6 @@
   </si>
   <si>
     <t>Price_Indian_en_exg_rate</t>
-  </si>
-  <si>
-    <t>average</t>
-  </si>
-  <si>
-    <t>median</t>
-  </si>
-  <si>
-    <t>mode</t>
-  </si>
-  <si>
-    <t>MAX</t>
-  </si>
-  <si>
-    <t>MIN</t>
-  </si>
-  <si>
-    <t>RANGE</t>
-  </si>
-  <si>
-    <t>SKEWNESS</t>
-  </si>
-  <si>
-    <t>KURTOSIS</t>
-  </si>
-  <si>
-    <t>mean</t>
-  </si>
-  <si>
-    <t>meadian</t>
-  </si>
-  <si>
-    <t>max</t>
-  </si>
-  <si>
-    <t>min</t>
-  </si>
-  <si>
-    <t>range</t>
-  </si>
-  <si>
-    <t>variable.p</t>
-  </si>
-  <si>
-    <t>variable.s</t>
-  </si>
-  <si>
-    <t>std.p</t>
-  </si>
-  <si>
-    <t>std.s</t>
-  </si>
-  <si>
-    <t>skewness</t>
-  </si>
-  <si>
-    <t>kurtosis</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>VARIANCE P</t>
-  </si>
-  <si>
-    <t>VARIANCE s</t>
-  </si>
-  <si>
-    <t>STD.p</t>
-  </si>
-  <si>
-    <t>STD.s</t>
   </si>
 </sst>
 </file>
@@ -1001,19 +918,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94E22926-C93C-4D5E-AD9B-242A2973F9E6}">
-  <dimension ref="A1:V1120"/>
+  <dimension ref="A1:S1108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="W14" sqref="W14"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" x14ac:dyDescent="0.8"/>
-  <cols>
-    <col min="21" max="21" width="12.59765625" customWidth="1"/>
-    <col min="22" max="22" width="19.8984375" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.8">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1072,7 +983,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.8">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.8">
       <c r="A2" s="1">
         <v>43923</v>
       </c>
@@ -1128,7 +1039,7 @@
         <v>6.9349999999999996</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.8">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.8">
       <c r="A3" s="1">
         <v>43924</v>
       </c>
@@ -1187,7 +1098,7 @@
         <v>45.02</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.8">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.8">
       <c r="A4" s="1">
         <v>43927</v>
       </c>
@@ -1243,7 +1154,7 @@
         <v>7.2850000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.8">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.8">
       <c r="A5" s="1">
         <v>43928</v>
       </c>
@@ -1302,7 +1213,7 @@
         <v>48.32</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.8">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.8">
       <c r="A6" s="1">
         <v>43929</v>
       </c>
@@ -1361,7 +1272,7 @@
         <v>45.75</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.8">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.8">
       <c r="A7" s="1">
         <v>43930</v>
       </c>
@@ -1420,22 +1331,15 @@
         <v>48.33</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.8">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.8">
       <c r="A8" s="1">
         <v>43931</v>
       </c>
       <c r="O8">
         <v>5.561E-2</v>
       </c>
-      <c r="U8" t="s">
-        <v>19</v>
-      </c>
-      <c r="V8">
-        <f>AVERAGE(B2:S1108)</f>
-        <v>6740.2530312690751</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.8">
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.8">
       <c r="A9" s="1">
         <v>43934</v>
       </c>
@@ -1472,15 +1376,8 @@
       <c r="S9">
         <v>47.75</v>
       </c>
-      <c r="U9" t="s">
-        <v>20</v>
-      </c>
-      <c r="V9">
-        <f>MEDIAN(B2:S1108)</f>
-        <v>83.05</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.8">
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.8">
       <c r="A10" s="1">
         <v>43935</v>
       </c>
@@ -1535,15 +1432,8 @@
       <c r="R10">
         <v>6.875</v>
       </c>
-      <c r="U10" t="s">
-        <v>21</v>
-      </c>
-      <c r="V10">
-        <f>MODE(B2:S1108)</f>
-        <v>115.27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.8">
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.8">
       <c r="A11" s="1">
         <v>43936</v>
       </c>
@@ -1601,15 +1491,8 @@
       <c r="S11">
         <v>49.25</v>
       </c>
-      <c r="U11">
-        <f>MAX(B2:B1108)</f>
-        <v>301.08999999999997</v>
-      </c>
-      <c r="V11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.8">
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.8">
       <c r="A12" s="1">
         <v>43937</v>
       </c>
@@ -1667,15 +1550,8 @@
       <c r="S12">
         <v>50.93</v>
       </c>
-      <c r="U12">
-        <f>MIN(B2:B1108)</f>
-        <v>26.75</v>
-      </c>
-      <c r="V12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.8">
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.8">
       <c r="A13" s="1">
         <v>43938</v>
       </c>
@@ -1733,15 +1609,8 @@
       <c r="S13">
         <v>51.75</v>
       </c>
-      <c r="U13">
-        <f>MAX(B2:S1108)-MIN(B2:S1108)</f>
-        <v>80828.990000000005</v>
-      </c>
-      <c r="V13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.8">
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.8">
       <c r="A14" s="1">
         <v>43941</v>
       </c>
@@ -1799,18 +1668,8 @@
       <c r="S14">
         <v>54.25</v>
       </c>
-      <c r="T14" t="s">
-        <v>38</v>
-      </c>
-      <c r="U14">
-        <f>_xlfn.VAR.P(B2:S1108)</f>
-        <v>373454034.09760362</v>
-      </c>
-      <c r="V14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.8">
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.8">
       <c r="A15" s="1">
         <v>43942</v>
       </c>
@@ -1868,15 +1727,8 @@
       <c r="S15">
         <v>51.82</v>
       </c>
-      <c r="U15">
-        <f>_xlfn.VAR.S(B2:S1108)</f>
-        <v>373473380.03803551</v>
-      </c>
-      <c r="V15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.8">
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.8">
       <c r="A16" s="1">
         <v>43943</v>
       </c>
@@ -1934,15 +1786,8 @@
       <c r="S16">
         <v>52.03</v>
       </c>
-      <c r="U16">
-        <f>_xlfn.STDEV.P(B2:S1108)</f>
-        <v>19324.958838186529</v>
-      </c>
-      <c r="V16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.8">
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.8">
       <c r="A17" s="1">
         <v>43944</v>
       </c>
@@ -2000,15 +1845,8 @@
       <c r="S17">
         <v>52.32</v>
       </c>
-      <c r="U17">
-        <f>_xlfn.STDEV.S(B2:S1108)</f>
-        <v>19325.459374566897</v>
-      </c>
-      <c r="V17" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.8">
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.8">
       <c r="A18" s="1">
         <v>43945</v>
       </c>
@@ -2066,15 +1904,8 @@
       <c r="S18">
         <v>52.1</v>
       </c>
-      <c r="U18">
-        <f>SKEW(B2:S1108)</f>
-        <v>2.6621206286026053</v>
-      </c>
-      <c r="V18" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.8">
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.8">
       <c r="A19" s="1">
         <v>43948</v>
       </c>
@@ -2126,15 +1957,8 @@
       <c r="S19">
         <v>51.93</v>
       </c>
-      <c r="U19">
-        <f>KURT(B2:S1108)</f>
-        <v>5.4076536922799985</v>
-      </c>
-      <c r="V19" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.8">
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.8">
       <c r="A20" s="1">
         <v>43949</v>
       </c>
@@ -2193,7 +2017,7 @@
         <v>52.07</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.8">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.8">
       <c r="A21" s="1">
         <v>43950</v>
       </c>
@@ -2252,7 +2076,7 @@
         <v>51.93</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.8">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.8">
       <c r="A22" s="1">
         <v>43951</v>
       </c>
@@ -2308,7 +2132,7 @@
         <v>49.97</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.8">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.8">
       <c r="A23" s="1">
         <v>43952</v>
       </c>
@@ -2355,7 +2179,7 @@
         <v>5.8449999999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.8">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.8">
       <c r="A24" s="1">
         <v>43955</v>
       </c>
@@ -2414,7 +2238,7 @@
         <v>48.18</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.8">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.8">
       <c r="A25" s="1">
         <v>43956</v>
       </c>
@@ -2473,7 +2297,7 @@
         <v>47.25</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.8">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.8">
       <c r="A26" s="1">
         <v>43957</v>
       </c>
@@ -2532,7 +2356,7 @@
         <v>48.65</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.8">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.8">
       <c r="A27" s="1">
         <v>43958</v>
       </c>
@@ -2591,7 +2415,7 @@
         <v>48.23</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.8">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.8">
       <c r="A28" s="1">
         <v>43959</v>
       </c>
@@ -2638,7 +2462,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.8">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.8">
       <c r="A29" s="1">
         <v>43962</v>
       </c>
@@ -2697,7 +2521,7 @@
         <v>48.35</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.8">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.8">
       <c r="A30" s="1">
         <v>43963</v>
       </c>
@@ -2756,7 +2580,7 @@
         <v>48.17</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.8">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.8">
       <c r="A31" s="1">
         <v>43964</v>
       </c>
@@ -2815,7 +2639,7 @@
         <v>51.6</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.8">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.8">
       <c r="A32" s="1">
         <v>43965</v>
       </c>
@@ -64607,922 +64431,6 @@
       </c>
       <c r="S1108">
         <v>180.54</v>
-      </c>
-    </row>
-    <row r="1109" spans="1:19" x14ac:dyDescent="0.8">
-      <c r="A1109" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1109">
-        <f>AVERAGE(B2:B1108)</f>
-        <v>87.953183520599353</v>
-      </c>
-      <c r="C1109">
-        <f t="shared" ref="C1109:S1109" si="0">AVERAGE(C2:C1108)</f>
-        <v>113.35315543071152</v>
-      </c>
-      <c r="D1109">
-        <f t="shared" si="0"/>
-        <v>134.97180711610511</v>
-      </c>
-      <c r="E1109">
-        <f t="shared" si="0"/>
-        <v>144.35149446494458</v>
-      </c>
-      <c r="F1109">
-        <f t="shared" si="0"/>
-        <v>123.75970973782768</v>
-      </c>
-      <c r="G1109">
-        <f t="shared" si="0"/>
-        <v>72.34546860782531</v>
-      </c>
-      <c r="H1109">
-        <f t="shared" si="0"/>
-        <v>76.283020072992556</v>
-      </c>
-      <c r="I1109">
-        <f t="shared" si="0"/>
-        <v>74.752492970946633</v>
-      </c>
-      <c r="J1109">
-        <f t="shared" si="0"/>
-        <v>80.871012183692642</v>
-      </c>
-      <c r="K1109">
-        <f t="shared" si="0"/>
-        <v>21.274702495201534</v>
-      </c>
-      <c r="L1109">
-        <f t="shared" si="0"/>
-        <v>68736.904810964072</v>
-      </c>
-      <c r="M1109">
-        <f t="shared" si="0"/>
-        <v>52972.178374291143</v>
-      </c>
-      <c r="N1109">
-        <f t="shared" si="0"/>
-        <v>17.622529080675424</v>
-      </c>
-      <c r="O1109">
-        <f t="shared" si="0"/>
-        <v>5.994277326106591E-2</v>
-      </c>
-      <c r="P1109">
-        <f t="shared" si="0"/>
-        <v>3.6979990900818982</v>
-      </c>
-      <c r="Q1109">
-        <f t="shared" si="0"/>
-        <v>112.75611059044046</v>
-      </c>
-      <c r="R1109">
-        <f t="shared" si="0"/>
-        <v>57.384855947955373</v>
-      </c>
-      <c r="S1109">
-        <f t="shared" si="0"/>
-        <v>141.61602674307548</v>
-      </c>
-    </row>
-    <row r="1110" spans="1:19" x14ac:dyDescent="0.8">
-      <c r="A1110" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1110">
-        <f>MEDIAN(B2:B1108)</f>
-        <v>76.19</v>
-      </c>
-      <c r="C1110">
-        <f t="shared" ref="C1110:S1110" si="1">MEDIAN(C2:C1108)</f>
-        <v>95.8</v>
-      </c>
-      <c r="D1110">
-        <f t="shared" si="1"/>
-        <v>108.91</v>
-      </c>
-      <c r="E1110">
-        <f t="shared" si="1"/>
-        <v>115.27</v>
-      </c>
-      <c r="F1110">
-        <f t="shared" si="1"/>
-        <v>111.2</v>
-      </c>
-      <c r="G1110">
-        <f t="shared" si="1"/>
-        <v>75.67</v>
-      </c>
-      <c r="H1110">
-        <f t="shared" si="1"/>
-        <v>79.960000000000008</v>
-      </c>
-      <c r="I1110">
-        <f t="shared" si="1"/>
-        <v>78.790000000000006</v>
-      </c>
-      <c r="J1110">
-        <f t="shared" si="1"/>
-        <v>86.41</v>
-      </c>
-      <c r="K1110">
-        <f t="shared" si="1"/>
-        <v>22.325000000000003</v>
-      </c>
-      <c r="L1110">
-        <f t="shared" si="1"/>
-        <v>70089.084999999992</v>
-      </c>
-      <c r="M1110">
-        <f t="shared" si="1"/>
-        <v>53270.245000000003</v>
-      </c>
-      <c r="N1110">
-        <f t="shared" si="1"/>
-        <v>12.9025</v>
-      </c>
-      <c r="O1110">
-        <f t="shared" si="1"/>
-        <v>5.8720000000000001E-2</v>
-      </c>
-      <c r="P1110">
-        <f t="shared" si="1"/>
-        <v>2.863</v>
-      </c>
-      <c r="Q1110">
-        <f t="shared" si="1"/>
-        <v>111.96</v>
-      </c>
-      <c r="R1110">
-        <f t="shared" si="1"/>
-        <v>35.838499999999996</v>
-      </c>
-      <c r="S1110">
-        <f t="shared" si="1"/>
-        <v>140.9</v>
-      </c>
-    </row>
-    <row r="1111" spans="1:19" x14ac:dyDescent="0.8">
-      <c r="A1111" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1111">
-        <f>MODE(B2:B1108)</f>
-        <v>33.86</v>
-      </c>
-      <c r="C1111">
-        <f t="shared" ref="C1111:S1111" si="2">MODE(C2:C1108)</f>
-        <v>47.56</v>
-      </c>
-      <c r="D1111">
-        <f t="shared" si="2"/>
-        <v>51.58</v>
-      </c>
-      <c r="E1111">
-        <f t="shared" si="2"/>
-        <v>115.27</v>
-      </c>
-      <c r="F1111">
-        <f t="shared" si="2"/>
-        <v>48.89</v>
-      </c>
-      <c r="G1111">
-        <f t="shared" si="2"/>
-        <v>78.260000000000005</v>
-      </c>
-      <c r="H1111">
-        <f t="shared" si="2"/>
-        <v>72.22</v>
-      </c>
-      <c r="I1111">
-        <f t="shared" si="2"/>
-        <v>43.78</v>
-      </c>
-      <c r="J1111">
-        <f t="shared" si="2"/>
-        <v>64.31</v>
-      </c>
-      <c r="K1111">
-        <f t="shared" si="2"/>
-        <v>24.75</v>
-      </c>
-      <c r="L1111" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M1111" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="N1111">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="O1111">
-        <f t="shared" si="2"/>
-        <v>5.5059999999999998E-2</v>
-      </c>
-      <c r="P1111">
-        <f t="shared" si="2"/>
-        <v>2.52</v>
-      </c>
-      <c r="Q1111">
-        <f t="shared" si="2"/>
-        <v>90.4</v>
-      </c>
-      <c r="R1111">
-        <f t="shared" si="2"/>
-        <v>13.9</v>
-      </c>
-      <c r="S1111">
-        <f t="shared" si="2"/>
-        <v>145.1</v>
-      </c>
-    </row>
-    <row r="1112" spans="1:19" x14ac:dyDescent="0.8">
-      <c r="A1112" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1112">
-        <f>MAX(B2:B1108)</f>
-        <v>301.08999999999997</v>
-      </c>
-      <c r="C1112">
-        <f t="shared" ref="C1112:S1112" si="3">MAX(C2:C1108)</f>
-        <v>360.24</v>
-      </c>
-      <c r="D1112">
-        <f t="shared" si="3"/>
-        <v>412.35</v>
-      </c>
-      <c r="E1112">
-        <f t="shared" si="3"/>
-        <v>428.22</v>
-      </c>
-      <c r="F1112">
-        <f t="shared" si="3"/>
-        <v>312.89</v>
-      </c>
-      <c r="G1112">
-        <f t="shared" si="3"/>
-        <v>123.7</v>
-      </c>
-      <c r="H1112">
-        <f t="shared" si="3"/>
-        <v>127.98</v>
-      </c>
-      <c r="I1112">
-        <f t="shared" si="3"/>
-        <v>122.53</v>
-      </c>
-      <c r="J1112">
-        <f t="shared" si="3"/>
-        <v>122.2</v>
-      </c>
-      <c r="K1112">
-        <f t="shared" si="3"/>
-        <v>40.299999999999997</v>
-      </c>
-      <c r="L1112">
-        <f t="shared" si="3"/>
-        <v>80791.360000000001</v>
-      </c>
-      <c r="M1112">
-        <f t="shared" si="3"/>
-        <v>75185.759999999995</v>
-      </c>
-      <c r="N1112">
-        <f t="shared" si="3"/>
-        <v>69.954999999999998</v>
-      </c>
-      <c r="O1112">
-        <f t="shared" si="3"/>
-        <v>7.4349999999999999E-2</v>
-      </c>
-      <c r="P1112">
-        <f t="shared" si="3"/>
-        <v>9.6470000000000002</v>
-      </c>
-      <c r="Q1112">
-        <f t="shared" si="3"/>
-        <v>139.43</v>
-      </c>
-      <c r="R1112">
-        <f t="shared" si="3"/>
-        <v>339.19499999999999</v>
-      </c>
-      <c r="S1112">
-        <f t="shared" si="3"/>
-        <v>295.25</v>
-      </c>
-    </row>
-    <row r="1113" spans="1:19" x14ac:dyDescent="0.8">
-      <c r="A1113" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1113">
-        <f>MIN(B2:B1108)</f>
-        <v>26.75</v>
-      </c>
-      <c r="C1113">
-        <f t="shared" ref="C1113:S1113" si="4">MIN(C2:C1108)</f>
-        <v>34.56</v>
-      </c>
-      <c r="D1113">
-        <f t="shared" si="4"/>
-        <v>44.69</v>
-      </c>
-      <c r="E1113">
-        <f t="shared" si="4"/>
-        <v>44.53</v>
-      </c>
-      <c r="F1113">
-        <f t="shared" si="4"/>
-        <v>41.81</v>
-      </c>
-      <c r="G1113">
-        <f t="shared" si="4"/>
-        <v>-37.630000000000003</v>
-      </c>
-      <c r="H1113">
-        <f t="shared" si="4"/>
-        <v>19.329999999999998</v>
-      </c>
-      <c r="I1113">
-        <f t="shared" si="4"/>
-        <v>19.07</v>
-      </c>
-      <c r="J1113">
-        <f t="shared" si="4"/>
-        <v>31.57</v>
-      </c>
-      <c r="K1113">
-        <f t="shared" si="4"/>
-        <v>12.06</v>
-      </c>
-      <c r="L1113">
-        <f t="shared" si="4"/>
-        <v>44598.7</v>
-      </c>
-      <c r="M1113">
-        <f t="shared" si="4"/>
-        <v>35258.300000000003</v>
-      </c>
-      <c r="N1113">
-        <f t="shared" si="4"/>
-        <v>1.9950000000000001</v>
-      </c>
-      <c r="O1113">
-        <f t="shared" si="4"/>
-        <v>5.0470000000000001E-2</v>
-      </c>
-      <c r="P1113">
-        <f t="shared" si="4"/>
-        <v>1.482</v>
-      </c>
-      <c r="Q1113">
-        <f t="shared" si="4"/>
-        <v>80.989999999999995</v>
-      </c>
-      <c r="R1113">
-        <f t="shared" si="4"/>
-        <v>3.51</v>
-      </c>
-      <c r="S1113">
-        <f t="shared" si="4"/>
-        <v>45.02</v>
-      </c>
-    </row>
-    <row r="1114" spans="1:19" x14ac:dyDescent="0.8">
-      <c r="A1114" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1114">
-        <f>MAX(B2:B1108)-MIN(B2:B1108)</f>
-        <v>274.33999999999997</v>
-      </c>
-      <c r="C1114">
-        <f t="shared" ref="C1114:S1114" si="5">MAX(C2:C1108)-MIN(C2:C1108)</f>
-        <v>325.68</v>
-      </c>
-      <c r="D1114">
-        <f t="shared" si="5"/>
-        <v>367.66</v>
-      </c>
-      <c r="E1114">
-        <f t="shared" si="5"/>
-        <v>383.69000000000005</v>
-      </c>
-      <c r="F1114">
-        <f t="shared" si="5"/>
-        <v>271.08</v>
-      </c>
-      <c r="G1114">
-        <f t="shared" si="5"/>
-        <v>161.33000000000001</v>
-      </c>
-      <c r="H1114">
-        <f t="shared" si="5"/>
-        <v>108.65</v>
-      </c>
-      <c r="I1114">
-        <f t="shared" si="5"/>
-        <v>103.46000000000001</v>
-      </c>
-      <c r="J1114">
-        <f t="shared" si="5"/>
-        <v>90.63</v>
-      </c>
-      <c r="K1114">
-        <f t="shared" si="5"/>
-        <v>28.239999999999995</v>
-      </c>
-      <c r="L1114">
-        <f t="shared" si="5"/>
-        <v>36192.660000000003</v>
-      </c>
-      <c r="M1114">
-        <f t="shared" si="5"/>
-        <v>39927.459999999992</v>
-      </c>
-      <c r="N1114">
-        <f t="shared" si="5"/>
-        <v>67.959999999999994</v>
-      </c>
-      <c r="O1114">
-        <f t="shared" si="5"/>
-        <v>2.3879999999999998E-2</v>
-      </c>
-      <c r="P1114">
-        <f t="shared" si="5"/>
-        <v>8.1650000000000009</v>
-      </c>
-      <c r="Q1114">
-        <f t="shared" si="5"/>
-        <v>58.440000000000012</v>
-      </c>
-      <c r="R1114">
-        <f t="shared" si="5"/>
-        <v>335.685</v>
-      </c>
-      <c r="S1114">
-        <f t="shared" si="5"/>
-        <v>250.23</v>
-      </c>
-    </row>
-    <row r="1115" spans="1:19" x14ac:dyDescent="0.8">
-      <c r="A1115" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1115">
-        <f t="shared" ref="C1115:S1115" si="6">_xlfn.VAR.P(C2:C1108)</f>
-        <v>3978.5634073653678</v>
-      </c>
-      <c r="D1115">
-        <f t="shared" si="6"/>
-        <v>5996.3515518841314</v>
-      </c>
-      <c r="E1115">
-        <f t="shared" si="6"/>
-        <v>6965.8491189842289</v>
-      </c>
-      <c r="F1115">
-        <f t="shared" si="6"/>
-        <v>3189.5023932678268</v>
-      </c>
-      <c r="G1115">
-        <f t="shared" si="6"/>
-        <v>424.19678310615529</v>
-      </c>
-      <c r="H1115">
-        <f t="shared" si="6"/>
-        <v>429.0585875032711</v>
-      </c>
-      <c r="I1115">
-        <f t="shared" si="6"/>
-        <v>420.09419940832606</v>
-      </c>
-      <c r="J1115">
-        <f t="shared" si="6"/>
-        <v>770.55582577959888</v>
-      </c>
-      <c r="K1115">
-        <f t="shared" si="6"/>
-        <v>37.617803414369952</v>
-      </c>
-      <c r="L1115">
-        <f t="shared" si="6"/>
-        <v>62803911.774064556</v>
-      </c>
-      <c r="M1115">
-        <f t="shared" si="6"/>
-        <v>49481253.139441684</v>
-      </c>
-      <c r="N1115">
-        <f t="shared" si="6"/>
-        <v>161.56182382326296</v>
-      </c>
-      <c r="O1115">
-        <f t="shared" si="6"/>
-        <v>3.678283377243771E-5</v>
-      </c>
-      <c r="P1115">
-        <f t="shared" si="6"/>
-        <v>3.6875584358498856</v>
-      </c>
-      <c r="Q1115">
-        <f t="shared" si="6"/>
-        <v>188.32630699059246</v>
-      </c>
-      <c r="R1115">
-        <f t="shared" si="6"/>
-        <v>2841.3340961474678</v>
-      </c>
-      <c r="S1115">
-        <f t="shared" si="6"/>
-        <v>2929.1290969162051</v>
-      </c>
-    </row>
-    <row r="1116" spans="1:19" x14ac:dyDescent="0.8">
-      <c r="A1116" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1116">
-        <f>_xlfn.VAR.S(B2:B1108)</f>
-        <v>2237.6185664255049</v>
-      </c>
-      <c r="C1116">
-        <f t="shared" ref="C1116:S1116" si="7">_xlfn.VAR.S(C2:C1108)</f>
-        <v>3982.2921453291565</v>
-      </c>
-      <c r="D1116">
-        <f t="shared" si="7"/>
-        <v>6001.9713752692132</v>
-      </c>
-      <c r="E1116">
-        <f t="shared" si="7"/>
-        <v>6972.2811126305669</v>
-      </c>
-      <c r="F1116">
-        <f t="shared" si="7"/>
-        <v>3192.4916176289012</v>
-      </c>
-      <c r="G1116">
-        <f t="shared" si="7"/>
-        <v>424.58311897419384</v>
-      </c>
-      <c r="H1116">
-        <f t="shared" si="7"/>
-        <v>429.45042182975811</v>
-      </c>
-      <c r="I1116">
-        <f t="shared" si="7"/>
-        <v>420.48828402315536</v>
-      </c>
-      <c r="J1116">
-        <f t="shared" si="7"/>
-        <v>771.27867364618442</v>
-      </c>
-      <c r="K1116">
-        <f t="shared" si="7"/>
-        <v>37.653939632827552</v>
-      </c>
-      <c r="L1116">
-        <f t="shared" si="7"/>
-        <v>62863328.909139961</v>
-      </c>
-      <c r="M1116">
-        <f>_xlfn.VAR.S(M2:M1108)</f>
-        <v>49528066.05631911</v>
-      </c>
-      <c r="N1116">
-        <f t="shared" si="7"/>
-        <v>161.71352506628946</v>
-      </c>
-      <c r="O1116">
-        <f t="shared" si="7"/>
-        <v>3.6816091307494166E-5</v>
-      </c>
-      <c r="P1116">
-        <f t="shared" si="7"/>
-        <v>3.6909168679408233</v>
-      </c>
-      <c r="Q1116">
-        <f t="shared" si="7"/>
-        <v>188.50297331985254</v>
-      </c>
-      <c r="R1116">
-        <f t="shared" si="7"/>
-        <v>2843.9771976322559</v>
-      </c>
-      <c r="S1116">
-        <f t="shared" si="7"/>
-        <v>2931.9294115404064</v>
-      </c>
-    </row>
-    <row r="1117" spans="1:19" x14ac:dyDescent="0.8">
-      <c r="A1117" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1117">
-        <f t="shared" ref="C1117:S1117" si="8">_xlfn.STDEV.P(C2:C1108)</f>
-        <v>63.075854392670479</v>
-      </c>
-      <c r="D1117">
-        <f t="shared" si="8"/>
-        <v>77.436112711603315</v>
-      </c>
-      <c r="E1117">
-        <f t="shared" si="8"/>
-        <v>83.461662570213804</v>
-      </c>
-      <c r="F1117">
-        <f t="shared" si="8"/>
-        <v>56.475679661849369</v>
-      </c>
-      <c r="G1117">
-        <f t="shared" si="8"/>
-        <v>20.596038043909203</v>
-      </c>
-      <c r="H1117">
-        <f t="shared" si="8"/>
-        <v>20.713729444580256</v>
-      </c>
-      <c r="I1117">
-        <f t="shared" si="8"/>
-        <v>20.496199633305832</v>
-      </c>
-      <c r="J1117">
-        <f t="shared" si="8"/>
-        <v>27.758887329639112</v>
-      </c>
-      <c r="K1117">
-        <f t="shared" si="8"/>
-        <v>6.1333354232725563</v>
-      </c>
-      <c r="L1117">
-        <f t="shared" si="8"/>
-        <v>7924.8919092984834</v>
-      </c>
-      <c r="M1117">
-        <f t="shared" si="8"/>
-        <v>7034.2912322025513</v>
-      </c>
-      <c r="N1117">
-        <f t="shared" si="8"/>
-        <v>12.710697220186741</v>
-      </c>
-      <c r="O1117">
-        <f t="shared" si="8"/>
-        <v>6.0648853057941425E-3</v>
-      </c>
-      <c r="P1117">
-        <f t="shared" si="8"/>
-        <v>1.9203016523061907</v>
-      </c>
-      <c r="Q1117">
-        <f t="shared" si="8"/>
-        <v>13.723203233596465</v>
-      </c>
-      <c r="R1117">
-        <f t="shared" si="8"/>
-        <v>53.304165842337952</v>
-      </c>
-      <c r="S1117">
-        <f t="shared" si="8"/>
-        <v>54.121429183976701</v>
-      </c>
-    </row>
-    <row r="1118" spans="1:19" x14ac:dyDescent="0.8">
-      <c r="A1118" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1118">
-        <f>_xlfn.STDEV.S(B2:S1108)</f>
-        <v>19325.459374566897</v>
-      </c>
-      <c r="C1118">
-        <f t="shared" ref="C1118:S1118" si="9">_xlfn.STDEV.S(C2:T1108)</f>
-        <v>19814.197322409276</v>
-      </c>
-      <c r="D1118">
-        <f t="shared" si="9"/>
-        <v>4029593.0822292729</v>
-      </c>
-      <c r="E1118">
-        <f t="shared" si="9"/>
-        <v>4160617.8826174843</v>
-      </c>
-      <c r="F1118">
-        <f t="shared" si="9"/>
-        <v>4308035.75988953</v>
-      </c>
-      <c r="G1118">
-        <f t="shared" si="9"/>
-        <v>4469759.4463829175</v>
-      </c>
-      <c r="H1118">
-        <f t="shared" si="9"/>
-        <v>4656781.2568908045</v>
-      </c>
-      <c r="I1118">
-        <f t="shared" si="9"/>
-        <v>4868811.0408161609</v>
-      </c>
-      <c r="J1118">
-        <f t="shared" si="9"/>
-        <v>5105785.0863917703</v>
-      </c>
-      <c r="K1118">
-        <f t="shared" si="9"/>
-        <v>5381111.084954137</v>
-      </c>
-      <c r="L1118">
-        <f t="shared" si="9"/>
-        <v>5698083.6764055956</v>
-      </c>
-      <c r="M1118">
-        <f t="shared" si="9"/>
-        <v>6085169.9068276808</v>
-      </c>
-      <c r="N1118">
-        <f t="shared" si="9"/>
-        <v>6563619.9214319652</v>
-      </c>
-      <c r="O1118">
-        <f t="shared" si="9"/>
-        <v>7181328.653706464</v>
-      </c>
-      <c r="P1118">
-        <f t="shared" si="9"/>
-        <v>8052450.3591467524</v>
-      </c>
-      <c r="Q1118">
-        <f t="shared" si="9"/>
-        <v>9332214.8693417329</v>
-      </c>
-      <c r="R1118">
-        <f t="shared" si="9"/>
-        <v>11427796.664325569</v>
-      </c>
-      <c r="S1118">
-        <f t="shared" si="9"/>
-        <v>16222201.239640366</v>
-      </c>
-    </row>
-    <row r="1119" spans="1:19" x14ac:dyDescent="0.8">
-      <c r="A1119" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1119">
-        <f>SKEW(B2:B1108)</f>
-        <v>1.3128247041343493</v>
-      </c>
-      <c r="C1119">
-        <f t="shared" ref="C1119:S1119" si="10">SKEW(C2:C1108)</f>
-        <v>1.260527841950327</v>
-      </c>
-      <c r="D1119">
-        <f t="shared" si="10"/>
-        <v>1.278060985339293</v>
-      </c>
-      <c r="E1119">
-        <f t="shared" si="10"/>
-        <v>1.2694886466708568</v>
-      </c>
-      <c r="F1119">
-        <f t="shared" si="10"/>
-        <v>0.86227231964928042</v>
-      </c>
-      <c r="G1119">
-        <f t="shared" si="10"/>
-        <v>-0.53634865021218103</v>
-      </c>
-      <c r="H1119">
-        <f t="shared" si="10"/>
-        <v>-0.42963394968583785</v>
-      </c>
-      <c r="I1119">
-        <f t="shared" si="10"/>
-        <v>-0.56006679594309705</v>
-      </c>
-      <c r="J1119">
-        <f t="shared" si="10"/>
-        <v>-0.20743974140038085</v>
-      </c>
-      <c r="K1119">
-        <f t="shared" si="10"/>
-        <v>0.56577559769371888</v>
-      </c>
-      <c r="L1119">
-        <f t="shared" si="10"/>
-        <v>-0.8207780173166952</v>
-      </c>
-      <c r="M1119">
-        <f t="shared" si="10"/>
-        <v>0.28841825947549216</v>
-      </c>
-      <c r="N1119">
-        <f t="shared" si="10"/>
-        <v>1.084266569554414</v>
-      </c>
-      <c r="O1119">
-        <f t="shared" si="10"/>
-        <v>0.34796340604399795</v>
-      </c>
-      <c r="P1119">
-        <f t="shared" si="10"/>
-        <v>1.2600153919067629</v>
-      </c>
-      <c r="Q1119">
-        <f t="shared" si="10"/>
-        <v>0.22297204824275019</v>
-      </c>
-      <c r="R1119">
-        <f t="shared" si="10"/>
-        <v>1.7194773009945981</v>
-      </c>
-      <c r="S1119">
-        <f t="shared" si="10"/>
-        <v>0.3712774040241516</v>
-      </c>
-    </row>
-    <row r="1120" spans="1:19" x14ac:dyDescent="0.8">
-      <c r="A1120" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1120">
-        <f>KURT(B2:B1108)</f>
-        <v>2.1164836679614494</v>
-      </c>
-      <c r="C1120">
-        <f t="shared" ref="C1120:S1120" si="11">KURT(C2:C1108)</f>
-        <v>1.1273232786785812</v>
-      </c>
-      <c r="D1120">
-        <f t="shared" si="11"/>
-        <v>0.81180767817257005</v>
-      </c>
-      <c r="E1120">
-        <f t="shared" si="11"/>
-        <v>0.71763432509861458</v>
-      </c>
-      <c r="F1120">
-        <f t="shared" si="11"/>
-        <v>0.17604121757298063</v>
-      </c>
-      <c r="G1120">
-        <f t="shared" si="11"/>
-        <v>0.80828832290690977</v>
-      </c>
-      <c r="H1120">
-        <f t="shared" si="11"/>
-        <v>-2.4637299219017805E-2</v>
-      </c>
-      <c r="I1120">
-        <f t="shared" si="11"/>
-        <v>-3.8227038100931754E-2</v>
-      </c>
-      <c r="J1120">
-        <f t="shared" si="11"/>
-        <v>-1.4866949004388157</v>
-      </c>
-      <c r="K1120">
-        <f t="shared" si="11"/>
-        <v>2.0670714725606221E-2</v>
-      </c>
-      <c r="L1120">
-        <f t="shared" si="11"/>
-        <v>-0.11978781266684679</v>
-      </c>
-      <c r="M1120">
-        <f t="shared" si="11"/>
-        <v>-0.36258314624166355</v>
-      </c>
-      <c r="N1120">
-        <f t="shared" si="11"/>
-        <v>0.78942106968821246</v>
-      </c>
-      <c r="O1120">
-        <f t="shared" si="11"/>
-        <v>-1.2171522692275707</v>
-      </c>
-      <c r="P1120">
-        <f t="shared" si="11"/>
-        <v>0.66035589144966211</v>
-      </c>
-      <c r="Q1120">
-        <f t="shared" si="11"/>
-        <v>-0.8767197453047415</v>
-      </c>
-      <c r="R1120">
-        <f t="shared" si="11"/>
-        <v>3.1485645221595857</v>
-      </c>
-      <c r="S1120">
-        <f t="shared" si="11"/>
-        <v>-9.1080148401421201E-2</v>
       </c>
     </row>
   </sheetData>
